--- a/Projektdefinition/Arbeitsplatz/Arbeitsmatrix.xlsx
+++ b/Projektdefinition/Arbeitsplatz/Arbeitsmatrix.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Arbeitsmatrix</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Das Gesamtergebnis stimmt daher nicht mit der Arbeitsmenge überein.</t>
+  </si>
+  <si>
+    <t>Ergebnisreflektion</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,10 +833,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
         <v>0.25</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
       </c>
       <c r="E13" s="4">
         <v>0.75</v>
@@ -844,13 +847,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
       </c>
       <c r="E14" s="7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,19 +898,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
+    <row r="18" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" s="16">
-        <f>SUM(C3:C17)/15</f>
-        <v>0.26066666666666666</v>
+        <v>0</v>
       </c>
       <c r="D18" s="16">
-        <f>SUM(D3:D17)/15</f>
-        <v>0.24400000000000002</v>
+        <v>1</v>
       </c>
       <c r="E18" s="16">
-        <f>SUM(E3:E17)/15</f>
-        <v>0.49399999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -916,16 +918,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="8">
-        <f>SUM(C3:C18)/16</f>
-        <v>0.26066666666666666</v>
+        <v>0.33</v>
       </c>
       <c r="D19" s="8">
-        <f>SUM(D3:D18)/16</f>
-        <v>0.24400000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="E19" s="18">
-        <f>SUM(E3:E18)/16</f>
-        <v>0.49399999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
